--- a/hardware/CostAnalysis.xlsx
+++ b/hardware/CostAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cflee\Documents\GitHub\FROST\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82BEE40-7F58-4E06-96BC-583108B87B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8BE4DF-6214-452B-AC37-222EEF433E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{97A92B21-0440-4CFD-ABD1-2893F7340F8B}"/>
+    <workbookView xWindow="3510" yWindow="720" windowWidth="14610" windowHeight="17280" xr2:uid="{97A92B21-0440-4CFD-ABD1-2893F7340F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19F199A-5EAF-4B3C-BD58-1CECC4D3A6DF}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
